--- a/gun-low/Excel/ProjectileProp_子弹表.xlsx
+++ b/gun-low/Excel/ProjectileProp_子弹表.xlsx
@@ -34,17 +34,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,14 +50,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -85,14 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,9 +122,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,30 +449,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="3" t="str">
         <v>int</v>
       </c>
@@ -502,14 +484,14 @@
       <c r="D1" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="4" t="str">
+      <c r="E1" s="3" t="str">
         <v>vector3</v>
       </c>
       <c r="F1" s="3" t="str">
         <v>string</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="3" t="str">
         <v>ID</v>
       </c>
@@ -529,7 +511,7 @@
         <v>Des</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="3">
+    <row customHeight="true" ht="23" r="3">
       <c r="A3" s="3" t="str">
         <v>唯一ID</v>
       </c>
@@ -542,16 +524,16 @@
       <c r="D3" t="str">
         <v>击中特效</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="3" t="str">
         <v>击中特效缩放</v>
       </c>
       <c r="F3" s="3" t="str">
         <v>描述</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="4"/>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="2">
+    <row customHeight="true" ht="23" r="4"/>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
@@ -583,16 +565,15 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>EAF62D0F4EF181ABB6C8AB83E876818B</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>207772</v>
       </c>
       <c r="D6" s="1">
@@ -616,10 +597,9 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
@@ -649,10 +629,9 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
@@ -684,10 +663,9 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="str">
@@ -717,10 +695,9 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="str">
@@ -750,10 +727,9 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="str">
@@ -787,10 +763,9 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
@@ -822,10 +797,9 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="str">
@@ -857,10 +831,9 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="str">
@@ -890,10 +863,9 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="str">
@@ -923,10 +895,9 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="str">
@@ -956,10 +927,9 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="str">
@@ -989,10 +959,9 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="str">
@@ -1022,10 +991,9 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="2">
+    </row>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="str">
@@ -1055,9 +1023,24 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-    </row>
-    <row customHeight="true" ht="21" r="20"/>
+    </row>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" t="str">
+        <v>D6BED3274D75002CE69EFC863C6C58F6</v>
+      </c>
+      <c r="C20">
+        <v>186450</v>
+      </c>
+      <c r="D20">
+        <v>265665</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
